--- a/2022/Realme/OCTOBER/19.10.2022/realme Bank Statement Oct-20222.xlsx
+++ b/2022/Realme/OCTOBER/19.10.2022/realme Bank Statement Oct-20222.xlsx
@@ -2498,6 +2498,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,12 +2537,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2541,12 +2547,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4108,67 +4108,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="233"/>
-      <c r="O1" s="233"/>
-      <c r="P1" s="233"/>
-      <c r="Q1" s="233"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
     </row>
     <row r="2" spans="1:24" s="58" customFormat="1" ht="18">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="234"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="234"/>
-      <c r="Q2" s="234"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
     </row>
     <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="237"/>
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="241"/>
       <c r="S3" s="41"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4177,52 +4177,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="61" customFormat="1">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="242" t="s">
+      <c r="F4" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="242" t="s">
+      <c r="G4" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="242" t="s">
+      <c r="H4" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="242" t="s">
+      <c r="I4" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="242" t="s">
+      <c r="J4" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="242" t="s">
+      <c r="K4" s="233" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="242" t="s">
+      <c r="L4" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="242" t="s">
+      <c r="M4" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="248" t="s">
+      <c r="N4" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="246" t="s">
+      <c r="O4" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="244" t="s">
+      <c r="P4" s="246" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="60" t="s">
@@ -4235,22 +4235,22 @@
       <c r="W4" s="63"/>
     </row>
     <row r="5" spans="1:24" s="61" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="239"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="243"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="243"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="247"/>
-      <c r="P5" s="245"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="234"/>
+      <c r="I5" s="234"/>
+      <c r="J5" s="234"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
+      <c r="M5" s="234"/>
+      <c r="N5" s="236"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="247"/>
       <c r="Q5" s="65" t="s">
         <v>30</v>
       </c>
@@ -7300,6 +7300,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7316,9 +7319,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14429,7 +14429,7 @@
   <dimension ref="A1:AA217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
